--- a/doc/aiTalkDB_Frontend.xlsx
+++ b/doc/aiTalkDB_Frontend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk-app/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77772992-DA69-3246-8A4E-A9968967176F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D46DF-93E9-904C-89D6-30F5C1BC2642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F2C5FE8B-44E8-0E47-A551-EB5E6A9AD6B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="10" xr2:uid="{F2C5FE8B-44E8-0E47-A551-EB5E6A9AD6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="181">
   <si>
     <t>本地路径</t>
   </si>
@@ -628,12 +628,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>senderId</t>
-  </si>
-  <si>
-    <t>receiverId</t>
-  </si>
-  <si>
     <t>群昵称</t>
   </si>
   <si>
@@ -656,18 +650,6 @@
   </si>
   <si>
     <t>邀请时间/咨询时间</t>
-  </si>
-  <si>
-    <t>msg id 【前端需要存储而外的seq字段，用户协议响应部分】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会话类型：0、P2P一对一会话；1、MUC多人会话；  </t>
-  </si>
-  <si>
-    <t>发送者id(userId)</t>
-  </si>
-  <si>
-    <t>接受者id (userId)</t>
   </si>
   <si>
     <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态</t>
@@ -711,13 +693,28 @@
   </si>
   <si>
     <t>订阅/发布关系（粉丝列表）</t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>consulationTyppe</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>个人/商铺</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -799,6 +796,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -851,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -882,6 +886,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1200,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BCAA12-5BDB-2144-836F-54A8E11021CF}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1224,10 +1229,10 @@
     </row>
     <row r="2" spans="1:3" ht="19">
       <c r="A2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -1304,19 +1309,19 @@
     </row>
     <row r="10" spans="1:3" ht="19">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="19">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -1347,15 +1352,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E8D21-FC3F-1A4A-95D4-E1F090D5BFC1}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
@@ -1377,114 +1382,119 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
+        <v>177</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>157</v>
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>108</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="18:18">
-      <c r="R38" t="s">
-        <v>176</v>
+      <c r="C12" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="18:18">
+      <c r="R39" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F0A381-686F-8749-80E2-C38381B428FD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1520,46 +1530,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1570,7 +1580,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1581,7 +1591,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1786,7 +1796,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -1794,24 +1804,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1822,7 +1832,7 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2189,7 +2199,7 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2200,7 +2210,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2222,7 +2232,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2233,7 +2243,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2487,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/doc/aiTalkDB_Frontend.xlsx
+++ b/doc/aiTalkDB_Frontend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="185">
   <si>
     <t>表名</t>
   </si>
@@ -518,6 +518,18 @@
     <t>申请人备注</t>
   </si>
   <si>
+    <t>requesterNickname</t>
+  </si>
+  <si>
+    <t>申请人昵称</t>
+  </si>
+  <si>
+    <t>requesterProfile</t>
+  </si>
+  <si>
+    <t>申请人头像</t>
+  </si>
+  <si>
     <t>addresseeId</t>
   </si>
   <si>
@@ -528,6 +540,18 @@
   </si>
   <si>
     <t>接受人/群备注</t>
+  </si>
+  <si>
+    <t>addresseeNickname</t>
+  </si>
+  <si>
+    <t>接收人昵称</t>
+  </si>
+  <si>
+    <t>addresseeProfile</t>
+  </si>
+  <si>
+    <t>接收人头像</t>
   </si>
   <si>
     <t>inviteStatus</t>
@@ -689,11 +713,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -706,20 +730,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -752,18 +762,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,17 +785,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,8 +800,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -814,64 +890,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,19 +898,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,7 +913,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,6 +929,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,13 +958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,19 +1036,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,7 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,13 +1090,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,49 +1102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,6 +1138,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1163,17 +1182,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,24 +1196,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,181 +1225,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1733,7 +1735,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -1744,131 +1746,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" ht="18" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" ht="18" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="18" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" ht="18" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" ht="18" spans="1:3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" ht="18" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" ht="18" spans="1:3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,16 +1897,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1915,32 +1917,32 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1951,7 +1953,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1972,7 +1974,7 @@
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2003,7 +2005,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>86</v>
@@ -2022,7 +2024,7 @@
     </row>
     <row r="39" spans="18:18">
       <c r="R39" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2111,7 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2120,8 +2122,8 @@
       <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>164</v>
+      <c r="C7" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2131,7 +2133,7 @@
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2164,7 +2166,7 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2175,7 +2177,7 @@
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2214,32 +2216,32 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2264,26 +2266,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2291,7 +2293,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +2308,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -2369,7 +2371,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
@@ -2399,16 +2401,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2479,16 +2481,16 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -2627,7 +2629,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
@@ -2635,7 +2637,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
@@ -2654,8 +2656,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G26" sqref="C26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -2870,7 +2872,7 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2881,7 +2883,7 @@
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2903,7 +2905,7 @@
       <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2914,7 +2916,7 @@
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2925,7 +2927,7 @@
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2952,16 +2954,16 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -2970,7 +2972,7 @@
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2981,7 +2983,7 @@
       <c r="B16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3014,7 +3016,7 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3114,7 +3116,7 @@
       <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3125,7 +3127,7 @@
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3136,7 +3138,7 @@
       <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3169,18 +3171,18 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3232,90 +3234,90 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3328,31 +3330,31 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="38.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3394,7 +3396,7 @@
         <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>142</v>
@@ -3411,81 +3413,125 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>102</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>154</v>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/doc/aiTalkDB_Frontend.xlsx
+++ b/doc/aiTalkDB_Frontend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="8"/>
+    <workbookView windowWidth="28000" windowHeight="15760" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>表名</t>
   </si>
@@ -124,7 +124,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
       <t>语音状态</t>
     </r>
@@ -233,9 +232,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>effective</t>
     </r>
@@ -245,7 +242,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
       <t>有效</t>
     </r>
@@ -253,9 +249,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> cancel </t>
     </r>
@@ -265,7 +259,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="136"/>
-        <scheme val="minor"/>
       </rPr>
       <t>禁用</t>
     </r>
@@ -305,6 +298,24 @@
   </si>
   <si>
     <t>修改时间</t>
+  </si>
+  <si>
+    <t>groupNo</t>
+  </si>
+  <si>
+    <t>群号</t>
+  </si>
+  <si>
+    <t>是否禁言</t>
+  </si>
+  <si>
+    <t>isConfirmJoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean </t>
+  </si>
+  <si>
+    <t>是否开启邀请确认</t>
   </si>
   <si>
     <t>主键</t>
@@ -383,9 +394,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>状态：0 发送中 1:送达 2:已读 3:删除 4:撤回 5:已撤回</t>
     </r>
@@ -393,9 +402,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 6:发送失败</t>
     </r>
@@ -618,9 +625,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>m</t>
     </r>
@@ -628,9 +633,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>sgId</t>
     </r>
@@ -643,9 +646,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>s</t>
     </r>
@@ -653,9 +654,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>erverPath</t>
     </r>
@@ -671,9 +670,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>l</t>
     </r>
@@ -681,9 +678,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ocalPath</t>
     </r>
@@ -712,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -762,19 +757,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,7 +772,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,13 +819,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,69 +833,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,9 +855,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,8 +875,40 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,7 +923,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,19 +1037,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +1073,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,139 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,6 +1138,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1148,21 +1173,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,32 +1195,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,6 +1212,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1237,156 +1238,156 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1401,12 +1402,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1415,55 +1417,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1730,7 +1732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1738,7 +1740,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
@@ -1746,141 +1748,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:3">
-      <c r="A2" s="12" t="s">
+    <row r="2" ht="15.2" spans="1:3">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" ht="18" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" ht="15.2" spans="1:3">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" ht="18" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" ht="15.2" spans="1:3">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" ht="18" spans="1:3">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" ht="15.2" spans="1:3">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:3">
-      <c r="A6" s="14" t="s">
+    <row r="6" ht="15.2" spans="1:3">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:3">
-      <c r="A7" s="14" t="s">
+    <row r="7" ht="15.2" spans="1:3">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:3">
-      <c r="A8" s="12" t="s">
+    <row r="8" ht="15.2" spans="1:3">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="1:3">
-      <c r="A9" s="12" t="s">
+    <row r="9" ht="15.2" spans="1:3">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" ht="18" spans="1:3">
-      <c r="A10" s="12" t="s">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" ht="15.2" spans="1:3">
+      <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" ht="18" spans="1:3">
-      <c r="A11" s="12" t="s">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" ht="15.2" spans="1:3">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" ht="18" spans="1:3">
-      <c r="A12" s="12" t="s">
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" ht="15.2" spans="1:3">
+      <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" ht="18" spans="1:3">
-      <c r="A13" s="12" t="s">
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" ht="15.2" spans="1:3">
+      <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R39"/>
   <sheetViews>
@@ -1888,7 +1890,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -1917,32 +1919,32 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1953,7 +1955,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1969,13 +1971,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1986,7 +1988,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2002,40 +2004,40 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="18:18">
       <c r="R39" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2043,7 +2045,7 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -2068,73 +2070,73 @@
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2145,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2156,39 +2158,39 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2196,7 +2198,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.83333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.1666666666667" style="2" customWidth="1"/>
@@ -2214,45 +2216,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="14" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" ht="14" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" ht="14" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2262,30 +2264,30 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2293,17 +2295,17 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2311,7 +2313,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -2379,13 +2381,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2393,7 +2395,7 @@
       <selection activeCell="A4" sqref="A4:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -2514,7 +2516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="14" spans="1:3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2526,22 +2528,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -2644,23 +2646,56 @@
         <v>76</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G26" sqref="C26:G27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="3" max="3" width="26.3333333333333" customWidth="1"/>
@@ -2685,30 +2720,30 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2719,7 +2754,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2741,7 +2776,7 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2752,7 +2787,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2768,42 +2803,42 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -2823,13 +2858,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2840,7 +2875,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2856,79 +2891,79 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" ht="14" spans="1:3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2967,24 +3002,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2995,7 +3030,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3006,37 +3041,37 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -3056,13 +3091,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3073,73 +3108,73 @@
         <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3150,7 +3185,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3161,40 +3196,40 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3202,7 +3237,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="33.8333333333333" customWidth="1"/>
@@ -3227,54 +3262,54 @@
         <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3282,10 +3317,10 @@
         <v>63</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3293,7 +3328,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>75</v>
@@ -3304,7 +3339,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>76</v>
@@ -3315,28 +3350,28 @@
         <v>47</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -3368,122 +3403,122 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" ht="15.2" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="15.2" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -3511,31 +3546,31 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/doc/aiTalkDB_Frontend.xlsx
+++ b/doc/aiTalkDB_Frontend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15760" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28000" windowHeight="13460" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>表名</t>
   </si>
@@ -232,6 +232,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>effective</t>
@@ -249,6 +250,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> cancel </t>
@@ -285,6 +287,9 @@
     <t>群二维码</t>
   </si>
   <si>
+    <t>header</t>
+  </si>
+  <si>
     <t>群头像</t>
   </si>
   <si>
@@ -394,6 +399,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>状态：0 发送中 1:送达 2:已读 3:删除 4:撤回 5:已撤回</t>
@@ -402,6 +408,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 6:发送失败</t>
@@ -625,6 +632,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -633,6 +641,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>sgId</t>
@@ -646,6 +655,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -654,6 +664,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>erverPath</t>
@@ -670,6 +681,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>l</t>
@@ -678,6 +690,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>ocalPath</t>
@@ -707,12 +720,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -758,16 +771,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,38 +785,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,14 +801,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,8 +846,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,8 +867,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,36 +921,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="35">
@@ -941,25 +966,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,13 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,19 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,19 +1062,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,13 +1104,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,55 +1134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,21 +1173,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1177,17 +1187,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,17 +1200,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1229,158 +1222,190 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1919,32 +1944,32 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1955,7 +1980,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1971,13 +1996,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1988,7 +2013,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2004,29 +2029,29 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="18:18">
       <c r="R39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2070,73 +2095,73 @@
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2147,7 +2172,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2158,29 +2183,29 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2216,34 +2241,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14" spans="1:2">
+    <row r="2" ht="18" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" ht="14" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" ht="14" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2268,26 +2293,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2295,7 +2320,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2541,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" ht="14" spans="1:3">
+    <row r="11" ht="18" spans="1:3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2540,7 +2565,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -2610,24 +2635,24 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2635,7 +2660,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2643,18 +2668,18 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2665,18 +2690,18 @@
         <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2720,30 +2745,30 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2754,7 +2779,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2776,7 +2801,7 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2787,7 +2812,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2803,24 +2828,24 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2858,13 +2883,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2875,7 +2900,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2891,79 +2916,79 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" ht="14" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3002,24 +3027,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3030,7 +3055,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3041,18 +3066,18 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3091,13 +3116,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3108,73 +3133,73 @@
         <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3185,7 +3210,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3196,29 +3221,29 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3262,54 +3287,54 @@
         <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3317,10 +3342,10 @@
         <v>63</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3328,10 +3353,10 @@
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3339,10 +3364,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3350,10 +3375,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3403,122 +3428,122 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" ht="15.2" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" ht="15.2" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -3546,27 +3571,27 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/doc/aiTalkDB_Frontend.xlsx
+++ b/doc/aiTalkDB_Frontend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13460" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28000" windowHeight="12580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="10" r:id="rId1"/>
@@ -720,10 +720,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -771,20 +771,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -793,22 +779,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -823,60 +794,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -884,15 +801,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,7 +824,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,7 +966,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,25 +1014,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,55 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,19 +1092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,19 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,13 +1128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,8 +1166,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,19 +1196,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1222,26 +1239,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,149 +1263,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2416,8 +2416,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -2564,8 +2564,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -2717,7 +2717,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -2860,7 +2860,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -3093,7 +3093,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -3392,8 +3392,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
